--- a/img_user/aumza/testsys/excel_table_groups_ave_std.xlsx
+++ b/img_user/aumza/testsys/excel_table_groups_ave_std.xlsx
@@ -50,19 +50,19 @@
     <t>shannon_hci</t>
   </si>
   <si>
-    <t>S1_1_16s_S1</t>
+    <t>S1_1_16s</t>
   </si>
   <si>
     <t>ave</t>
   </si>
   <si>
-    <t>S2_1_16s_S3</t>
-  </si>
-  <si>
-    <t>S3_1_16s_S5</t>
-  </si>
-  <si>
-    <t>S4_1_16s_S7</t>
+    <t>S2_1_16s</t>
+  </si>
+  <si>
+    <t>S3_1_16s</t>
+  </si>
+  <si>
+    <t>S4_1_16s</t>
   </si>
   <si>
     <t>std</t>
@@ -468,31 +468,31 @@
         <v>12</v>
       </c>
       <c r="C2">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="D2">
-        <v>0.473189</v>
+        <v>0.472931</v>
       </c>
       <c r="E2">
-        <v>6399.669</v>
+        <v>6406.488</v>
       </c>
       <c r="F2">
-        <v>38794.13547</v>
+        <v>39198.736343</v>
       </c>
       <c r="G2">
-        <v>35535.130804</v>
+        <v>35889.749874</v>
       </c>
       <c r="H2">
-        <v>42417.717126</v>
+        <v>42879.133977</v>
       </c>
       <c r="I2">
-        <v>8.11252</v>
+        <v>8.110968</v>
       </c>
       <c r="J2">
-        <v>8.080386000000001</v>
+        <v>8.078761</v>
       </c>
       <c r="K2">
-        <v>8.144653999999999</v>
+        <v>8.143174999999999</v>
       </c>
     </row>
     <row r="3" spans="1:11">
@@ -503,31 +503,31 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="D3">
-        <v>0.482257</v>
+        <v>0.480829</v>
       </c>
       <c r="E3">
-        <v>6281</v>
+        <v>6304</v>
       </c>
       <c r="F3">
-        <v>38092.028698</v>
+        <v>38494.611973</v>
       </c>
       <c r="G3">
-        <v>34866.835709</v>
+        <v>35227.511589</v>
       </c>
       <c r="H3">
-        <v>41681.103642</v>
+        <v>42130.75278</v>
       </c>
       <c r="I3">
-        <v>8.060207999999999</v>
+        <v>8.065117000000001</v>
       </c>
       <c r="J3">
-        <v>8.02774</v>
+        <v>8.032629</v>
       </c>
       <c r="K3">
-        <v>8.092676000000001</v>
+        <v>8.097604</v>
       </c>
     </row>
     <row r="4" spans="1:11">
@@ -538,31 +538,31 @@
         <v>12</v>
       </c>
       <c r="C4">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="D4">
-        <v>0.516346</v>
+        <v>0.5151019999999999</v>
       </c>
       <c r="E4">
-        <v>5696.432</v>
+        <v>5719.434</v>
       </c>
       <c r="F4">
-        <v>49440.732602</v>
+        <v>50317.419218</v>
       </c>
       <c r="G4">
-        <v>44176.928934</v>
+        <v>44928.03107</v>
       </c>
       <c r="H4">
-        <v>55424.626913</v>
+        <v>56447.639769</v>
       </c>
       <c r="I4">
-        <v>7.660048</v>
+        <v>7.673819</v>
       </c>
       <c r="J4">
-        <v>7.622214</v>
+        <v>7.636124</v>
       </c>
       <c r="K4">
-        <v>7.697882</v>
+        <v>7.711514</v>
       </c>
     </row>
     <row r="5" spans="1:11">
@@ -573,31 +573,31 @@
         <v>12</v>
       </c>
       <c r="C5">
-        <v>10370</v>
+        <v>10380</v>
       </c>
       <c r="D5">
-        <v>0.430725</v>
+        <v>0.431529</v>
       </c>
       <c r="E5">
-        <v>6832.54</v>
+        <v>6822.088</v>
       </c>
       <c r="F5">
-        <v>43662.16649</v>
+        <v>44428.723428</v>
       </c>
       <c r="G5">
-        <v>40027.26008</v>
+        <v>40688.460706</v>
       </c>
       <c r="H5">
-        <v>47695.116233</v>
+        <v>48582.079688</v>
       </c>
       <c r="I5">
-        <v>8.300746</v>
+        <v>8.29687</v>
       </c>
       <c r="J5">
-        <v>8.271686000000001</v>
+        <v>8.267818999999999</v>
       </c>
       <c r="K5">
-        <v>8.329807000000001</v>
+        <v>8.325920999999999</v>
       </c>
     </row>
     <row r="6" spans="1:11">
@@ -611,28 +611,28 @@
         <v>0</v>
       </c>
       <c r="D6">
-        <v>0.002132</v>
+        <v>0.002098</v>
       </c>
       <c r="E6">
-        <v>17.381353</v>
+        <v>16.924711</v>
       </c>
       <c r="F6">
-        <v>978.3895690000001</v>
+        <v>975.013786</v>
       </c>
       <c r="G6">
-        <v>853.463091</v>
+        <v>849.914812</v>
       </c>
       <c r="H6">
-        <v>1120.811811</v>
+        <v>1117.722994</v>
       </c>
       <c r="I6">
-        <v>0.006797</v>
+        <v>0.006582</v>
       </c>
       <c r="J6">
-        <v>0.006901</v>
+        <v>0.006683</v>
       </c>
       <c r="K6">
-        <v>0.006695</v>
+        <v>0.006482</v>
       </c>
     </row>
     <row r="7" spans="1:11">
@@ -681,28 +681,28 @@
         <v>0</v>
       </c>
       <c r="D8">
-        <v>0.001068</v>
+        <v>0.000935</v>
       </c>
       <c r="E8">
-        <v>9.217449999999999</v>
+        <v>8.123524</v>
       </c>
       <c r="F8">
-        <v>927.6267800000001</v>
+        <v>825.182503</v>
       </c>
       <c r="G8">
-        <v>779.856744</v>
+        <v>692.692174</v>
       </c>
       <c r="H8">
-        <v>1101.429289</v>
+        <v>981.1822</v>
       </c>
       <c r="I8">
-        <v>0.00413</v>
+        <v>0.003597</v>
       </c>
       <c r="J8">
-        <v>0.004171</v>
+        <v>0.003633</v>
       </c>
       <c r="K8">
-        <v>0.004089</v>
+        <v>0.003562</v>
       </c>
     </row>
     <row r="9" spans="1:11">
@@ -716,28 +716,28 @@
         <v>0</v>
       </c>
       <c r="D9">
-        <v>0.001181</v>
+        <v>0.001137</v>
       </c>
       <c r="E9">
-        <v>9.196978</v>
+        <v>9.102102</v>
       </c>
       <c r="F9">
-        <v>615.430933</v>
+        <v>616.225855</v>
       </c>
       <c r="G9">
-        <v>537.8883499999999</v>
+        <v>537.647497</v>
       </c>
       <c r="H9">
-        <v>703.618998</v>
+        <v>705.716449</v>
       </c>
       <c r="I9">
-        <v>0.003191</v>
+        <v>0.003132</v>
       </c>
       <c r="J9">
-        <v>0.003239</v>
+        <v>0.003178</v>
       </c>
       <c r="K9">
-        <v>0.003143</v>
+        <v>0.003087</v>
       </c>
     </row>
   </sheetData>
